--- a/updated/assets/data/Selector Guide.xlsx
+++ b/updated/assets/data/Selector Guide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\STS\updated\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Special_Technical_Services\updated\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Voltage</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Deadman DMS-14 w/ Timing</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -541,49 +541,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,11 +904,11 @@
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,675 +933,705 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="17">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="C18" s="16">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>16</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>19</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>20</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>21</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>22</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="17">
-        <v>23</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="16">
+        <v>23</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="17">
-        <v>24</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="16">
+        <v>24</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>25</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>26</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>27</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>28</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="D31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>29</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>30</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="D33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>31</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>32</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>33</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>34</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>35</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="D38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>36</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="D39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>37</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="D40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>38</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>39</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>40</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>41</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="7" t="s">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="16">
+        <v>42</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="16">
+        <v>43</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1624,7 +1654,7 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="24107" divId="Selector Guide_24107" sourceType="sheet" destinationFile="C:\Users\Matthew\Desktop\STS\updated\assets\data\Website Tables\Selector Guide\Selector Guide.html" title="Selector Guide" autoRepublish="1"/>
+    <webPublishItem id="24107" divId="Selector Guide_24107" sourceType="sheet" destinationFile="C:\Users\Matthew\Desktop\Special_Technical_Services\updated\assets\data\Website Tables\Selector Guide\Selector Guide.html" title="Selector Guide" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/updated/assets/data/Selector Guide.xlsx
+++ b/updated/assets/data/Selector Guide.xlsx
@@ -907,8 +907,8 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1654,7 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="24107" divId="Selector Guide_24107" sourceType="sheet" destinationFile="C:\Users\Matthew\Desktop\Special_Technical_Services\updated\assets\data\Website Tables\Selector Guide\Selector Guide.html" title="Selector Guide" autoRepublish="1"/>
+    <webPublishItem id="24107" divId="Selector Guide_24107" sourceType="sheet" destinationFile="C:\Users\Matthew\Desktop\Special_Technical_Services\updated\assets\data\Website Tables\Selector Guide\Selector Guide.htm" title="Selector Guide" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>